--- a/Multiple Stations/Test_Data.xlsx
+++ b/Multiple Stations/Test_Data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11027"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dishanachar/Documents/scrap/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ML\Project\Multiple Stations\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB7C97D7-10E0-B141-9E2F-4AA6171CF8F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0EA72D5-D8B7-47CA-9667-CC71CDFC513E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" xr2:uid="{2992B7B8-3A17-1744-91D8-3D6DF7CCC246}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{2992B7B8-3A17-1744-91D8-3D6DF7CCC246}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -44,151 +44,151 @@
     <t>S1</t>
   </si>
   <si>
-    <t>weather_code_RKMP</t>
-  </si>
-  <si>
-    <t>Temperature_RKMP</t>
-  </si>
-  <si>
-    <t>Wind_Speed_RKMP</t>
-  </si>
-  <si>
-    <t>Distance_travelled_RKMP</t>
-  </si>
-  <si>
     <t>S2</t>
-  </si>
-  <si>
-    <t>weather_code_BPL</t>
-  </si>
-  <si>
-    <t>Temperature_BPL</t>
-  </si>
-  <si>
-    <t>Wind_Speed_BPL</t>
-  </si>
-  <si>
-    <t>Distance_travelled_BPL</t>
   </si>
   <si>
     <t>S3</t>
   </si>
   <si>
-    <t>weather_code_BINA</t>
-  </si>
-  <si>
-    <t>Temperature_BINA</t>
-  </si>
-  <si>
-    <t>Wind_Speed_BINA</t>
-  </si>
-  <si>
-    <t>Distance_travelled_BINA</t>
-  </si>
-  <si>
     <t>S4</t>
-  </si>
-  <si>
-    <t>weather_code_LAR</t>
-  </si>
-  <si>
-    <t>Temperature_LAR</t>
-  </si>
-  <si>
-    <t>Wind_Speed_LAR</t>
-  </si>
-  <si>
-    <t>Distance_travelled_LAR</t>
   </si>
   <si>
     <t>S5</t>
   </si>
   <si>
-    <t>weather_code_GWL</t>
-  </si>
-  <si>
-    <t>Temperature_GWL</t>
-  </si>
-  <si>
-    <t>Wind_Speed_GWL</t>
-  </si>
-  <si>
-    <t>Distance_travelled_GWL</t>
-  </si>
-  <si>
     <t>S6</t>
-  </si>
-  <si>
-    <t>weather_code_MRA</t>
-  </si>
-  <si>
-    <t>Temperature_MRA</t>
-  </si>
-  <si>
-    <t>Wind_Speed_MRA</t>
-  </si>
-  <si>
-    <t>Distance_travelled_MRA</t>
   </si>
   <si>
     <t>S7</t>
   </si>
   <si>
-    <t>weather_code_DHO</t>
-  </si>
-  <si>
-    <t>Temperature_DHO</t>
-  </si>
-  <si>
-    <t>Wind_Speed_DHO</t>
-  </si>
-  <si>
-    <t>Distance_travelled_DHO</t>
-  </si>
-  <si>
     <t>S8</t>
-  </si>
-  <si>
-    <t>weather_code_AGC</t>
-  </si>
-  <si>
-    <t>Temperature_AGC</t>
-  </si>
-  <si>
-    <t>Wind_Speed_AGC</t>
-  </si>
-  <si>
-    <t>Distance_travelled_AGC</t>
   </si>
   <si>
     <t>S9</t>
   </si>
   <si>
-    <t>weather_code_MTJ</t>
-  </si>
-  <si>
-    <t>Temperature_MTJ</t>
-  </si>
-  <si>
-    <t>Wind_Speed_MTJ</t>
-  </si>
-  <si>
-    <t>Distance_travelled_MTJ</t>
-  </si>
-  <si>
     <t>S10</t>
   </si>
   <si>
-    <t>weather_code_NDLS</t>
+    <t>weather_code_S1</t>
   </si>
   <si>
-    <t>Temperature_NDLS</t>
+    <t>Temperature_S1</t>
   </si>
   <si>
-    <t>Wind_Speed_NDLS</t>
+    <t>Wind_Speed_S1</t>
   </si>
   <si>
-    <t>Distance_travelled_NDLS</t>
+    <t>Distance_travelled_S1</t>
+  </si>
+  <si>
+    <t>weather_code_S2</t>
+  </si>
+  <si>
+    <t>Temperature_S2</t>
+  </si>
+  <si>
+    <t>Wind_Speed_S2</t>
+  </si>
+  <si>
+    <t>Distance_travelled_S2</t>
+  </si>
+  <si>
+    <t>weather_code_S3</t>
+  </si>
+  <si>
+    <t>Temperature_S3</t>
+  </si>
+  <si>
+    <t>Wind_Speed_S3</t>
+  </si>
+  <si>
+    <t>Distance_travelled_S3</t>
+  </si>
+  <si>
+    <t>weather_code_S4</t>
+  </si>
+  <si>
+    <t>Temperature_S4</t>
+  </si>
+  <si>
+    <t>Wind_Speed_S4</t>
+  </si>
+  <si>
+    <t>Distance_travelled_S4</t>
+  </si>
+  <si>
+    <t>weather_code_S5</t>
+  </si>
+  <si>
+    <t>Temperature_S5</t>
+  </si>
+  <si>
+    <t>Wind_Speed_S5</t>
+  </si>
+  <si>
+    <t>Distance_travelled_S5</t>
+  </si>
+  <si>
+    <t>weather_code_S6</t>
+  </si>
+  <si>
+    <t>Temperature_S6</t>
+  </si>
+  <si>
+    <t>Wind_Speed_S6</t>
+  </si>
+  <si>
+    <t>Distance_travelled_S6</t>
+  </si>
+  <si>
+    <t>weather_code_S7</t>
+  </si>
+  <si>
+    <t>Temperature_S7</t>
+  </si>
+  <si>
+    <t>Wind_Speed_S7</t>
+  </si>
+  <si>
+    <t>Distance_travelled_S7</t>
+  </si>
+  <si>
+    <t>weather_code_S8</t>
+  </si>
+  <si>
+    <t>Temperature_S8</t>
+  </si>
+  <si>
+    <t>Wind_Speed_S8</t>
+  </si>
+  <si>
+    <t>Distance_travelled_S8</t>
+  </si>
+  <si>
+    <t>weather_code_S9</t>
+  </si>
+  <si>
+    <t>Temperature_S9</t>
+  </si>
+  <si>
+    <t>Wind_Speed_S9</t>
+  </si>
+  <si>
+    <t>Distance_travelled_S9</t>
+  </si>
+  <si>
+    <t>weather_code_S10</t>
+  </si>
+  <si>
+    <t>Temperature_S10</t>
+  </si>
+  <si>
+    <t>Wind_Speed_S10</t>
+  </si>
+  <si>
+    <t>Distance_travelled_S10</t>
   </si>
 </sst>
 </file>
@@ -614,12 +614,12 @@
   <dimension ref="A1:AY593"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="82" workbookViewId="0">
-      <selection activeCell="M9" sqref="M9"/>
+      <selection activeCell="R17" sqref="R17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -627,139 +627,139 @@
         <v>1</v>
       </c>
       <c r="C1" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="H1" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I1" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="J1" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="L1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="M1" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="N1" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="O1" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="P1" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="R1" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="S1" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="T1" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="U1" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="V1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="W1" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="X1" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="Y1" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="Z1" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="AA1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="AB1" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="AC1" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="AD1" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="AE1" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="AF1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="9" t="s">
+      <c r="AG1" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="AH1" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="AI1" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="AJ1" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="AK1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="9" t="s">
+      <c r="AL1" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="AM1" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="AN1" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="AO1" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="AP1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="AQ1" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="AR1" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="AS1" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="AT1" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="AU1" s="4" t="s">
         <v>10</v>
-      </c>
-      <c r="L1" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="P1" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q1" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="R1" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="S1" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="T1" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="U1" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="V1" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="W1" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="X1" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="Y1" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="Z1" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="AA1" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="AB1" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="AC1" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="AD1" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="AE1" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="AF1" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="AG1" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="AH1" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="AI1" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="AJ1" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="AK1" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="AL1" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="AM1" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="AN1" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="AO1" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="AP1" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="AQ1" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="AR1" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="AS1" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="AT1" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="AU1" s="4" t="s">
-        <v>46</v>
       </c>
       <c r="AV1" s="4" t="s">
         <v>47</v>
@@ -774,7 +774,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="2" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>45525</v>
       </c>
@@ -929,7 +929,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="3" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>45526</v>
       </c>
@@ -1084,7 +1084,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="4" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>45527</v>
       </c>
@@ -1239,7 +1239,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="5" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>45528</v>
       </c>
@@ -1394,7 +1394,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="6" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>45529</v>
       </c>
@@ -1549,7 +1549,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="7" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>45530</v>
       </c>
@@ -1704,7 +1704,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="8" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>45531</v>
       </c>
@@ -1859,7 +1859,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="9" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>45532</v>
       </c>
@@ -2014,7 +2014,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="10" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>45533</v>
       </c>
@@ -2169,7 +2169,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="11" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>45534</v>
       </c>
@@ -2324,7 +2324,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="12" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>45535</v>
       </c>
@@ -2479,7 +2479,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="13" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>45536</v>
       </c>
@@ -2634,7 +2634,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="14" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>45537</v>
       </c>
@@ -2789,7 +2789,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="15" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>45538</v>
       </c>
@@ -2944,7 +2944,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="16" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>45539</v>
       </c>
@@ -3099,7 +3099,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="17" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>45540</v>
       </c>
@@ -3254,7 +3254,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="18" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>45541</v>
       </c>
@@ -3409,7 +3409,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="19" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>45542</v>
       </c>
@@ -3564,7 +3564,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="20" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>45543</v>
       </c>
@@ -3719,7 +3719,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="21" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>45544</v>
       </c>
@@ -3874,7 +3874,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="22" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>45545</v>
       </c>
@@ -4029,7 +4029,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="23" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>45546</v>
       </c>
@@ -4184,7 +4184,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="24" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>45547</v>
       </c>
@@ -4339,7 +4339,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="25" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>45548</v>
       </c>
@@ -4494,7 +4494,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="26" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>45549</v>
       </c>
@@ -4649,7 +4649,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="27" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>45550</v>
       </c>
@@ -4804,7 +4804,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="28" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>45551</v>
       </c>
@@ -4959,7 +4959,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="29" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>45552</v>
       </c>
@@ -5114,7 +5114,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="30" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>45553</v>
       </c>
@@ -5269,7 +5269,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="31" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>45554</v>
       </c>
@@ -5404,7 +5404,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="32" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>45555</v>
       </c>
@@ -5559,7 +5559,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="33" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>45556</v>
       </c>
@@ -5714,7 +5714,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="34" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>45557</v>
       </c>
@@ -5869,7 +5869,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="35" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>45558</v>
       </c>
@@ -6024,7 +6024,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="36" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>45559</v>
       </c>
@@ -6179,7 +6179,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="37" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>45560</v>
       </c>
@@ -6334,7 +6334,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="38" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>45561</v>
       </c>
@@ -6489,7 +6489,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="39" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <v>45562</v>
       </c>
@@ -6644,7 +6644,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="40" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <v>45563</v>
       </c>
@@ -6799,7 +6799,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="41" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
         <v>45564</v>
       </c>
@@ -6954,7 +6954,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="42" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <v>45565</v>
       </c>
@@ -7109,7 +7109,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="43" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
         <v>45566</v>
       </c>
@@ -7264,7 +7264,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="44" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
         <v>45567</v>
       </c>
@@ -7419,7 +7419,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="45" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
         <v>45568</v>
       </c>
@@ -7574,7 +7574,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="46" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
         <v>45569</v>
       </c>
@@ -7729,7 +7729,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="47" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
         <v>45570</v>
       </c>
@@ -7884,7 +7884,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="48" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
         <v>45571</v>
       </c>
@@ -8039,7 +8039,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="49" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
         <v>45572</v>
       </c>
@@ -8194,7 +8194,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="50" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
         <v>45573</v>
       </c>
@@ -8349,7 +8349,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="51" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="1">
         <v>45574</v>
       </c>
@@ -8504,7 +8504,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="52" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="1">
         <v>45575</v>
       </c>
@@ -8659,7 +8659,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="53" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="1">
         <v>45576</v>
       </c>
@@ -8814,7 +8814,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="54" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="1">
         <v>45577</v>
       </c>
@@ -8969,7 +8969,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="55" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="1">
         <v>45578</v>
       </c>
@@ -9124,7 +9124,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="56" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="1">
         <v>45579</v>
       </c>
@@ -9279,7 +9279,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="57" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="1">
         <v>45580</v>
       </c>
@@ -9434,7 +9434,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="58" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="1">
         <v>45581</v>
       </c>
@@ -9589,7 +9589,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="59" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="1">
         <v>45582</v>
       </c>
@@ -9744,7 +9744,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="60" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="1">
         <v>45583</v>
       </c>
@@ -9899,7 +9899,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="61" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="1">
         <v>45584</v>
       </c>
@@ -10054,7 +10054,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="62" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="1">
         <v>45585</v>
       </c>
@@ -10209,7 +10209,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="63" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="1">
         <v>45586</v>
       </c>
@@ -10364,7 +10364,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="64" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="1">
         <v>45587</v>
       </c>
@@ -10519,7 +10519,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="65" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="1">
         <v>45588</v>
       </c>
@@ -10674,7 +10674,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="66" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" s="1">
         <v>45589</v>
       </c>
@@ -10829,7 +10829,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="67" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="1">
         <v>45590</v>
       </c>
@@ -10984,7 +10984,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="68" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="1">
         <v>45591</v>
       </c>
@@ -11139,7 +11139,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="69" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="1">
         <v>45592</v>
       </c>
@@ -11294,7 +11294,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="70" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="1">
         <v>45593</v>
       </c>
@@ -11449,7 +11449,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="71" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" s="1">
         <v>45594</v>
       </c>
@@ -11604,7 +11604,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="72" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" s="1">
         <v>45595</v>
       </c>
@@ -11759,7 +11759,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="73" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" s="1">
         <v>45596</v>
       </c>
@@ -11914,7 +11914,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="74" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74" s="1">
         <v>45597</v>
       </c>
@@ -12069,7 +12069,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="75" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75" s="1">
         <v>45598</v>
       </c>
@@ -12224,7 +12224,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="76" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" s="5">
         <v>45526</v>
       </c>
@@ -12359,7 +12359,7 @@
       </c>
       <c r="AY76" s="4"/>
     </row>
-    <row r="77" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A77" s="5">
         <v>45527</v>
       </c>
@@ -12494,7 +12494,7 @@
       </c>
       <c r="AY77" s="4"/>
     </row>
-    <row r="78" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A78" s="5">
         <v>45528</v>
       </c>
@@ -12629,7 +12629,7 @@
       </c>
       <c r="AY78" s="4"/>
     </row>
-    <row r="79" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A79" s="5">
         <v>45529</v>
       </c>
@@ -12764,7 +12764,7 @@
       </c>
       <c r="AY79" s="4"/>
     </row>
-    <row r="80" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A80" s="5">
         <v>45530</v>
       </c>
@@ -12899,7 +12899,7 @@
       </c>
       <c r="AY80" s="4"/>
     </row>
-    <row r="81" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A81" s="5">
         <v>45531</v>
       </c>
@@ -13034,7 +13034,7 @@
       </c>
       <c r="AY81" s="4"/>
     </row>
-    <row r="82" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A82" s="5">
         <v>45532</v>
       </c>
@@ -13169,7 +13169,7 @@
       </c>
       <c r="AY82" s="4"/>
     </row>
-    <row r="83" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A83" s="5">
         <v>45533</v>
       </c>
@@ -13304,7 +13304,7 @@
       </c>
       <c r="AY83" s="4"/>
     </row>
-    <row r="84" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A84" s="5">
         <v>45534</v>
       </c>
@@ -13439,7 +13439,7 @@
       </c>
       <c r="AY84" s="4"/>
     </row>
-    <row r="85" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A85" s="5">
         <v>45535</v>
       </c>
@@ -13574,7 +13574,7 @@
       </c>
       <c r="AY85" s="4"/>
     </row>
-    <row r="86" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A86" s="5">
         <v>45536</v>
       </c>
@@ -13709,7 +13709,7 @@
       </c>
       <c r="AY86" s="4"/>
     </row>
-    <row r="87" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A87" s="5">
         <v>45537</v>
       </c>
@@ -13844,7 +13844,7 @@
       </c>
       <c r="AY87" s="4"/>
     </row>
-    <row r="88" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A88" s="5">
         <v>45538</v>
       </c>
@@ -13979,7 +13979,7 @@
       </c>
       <c r="AY88" s="4"/>
     </row>
-    <row r="89" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A89" s="5">
         <v>45539</v>
       </c>
@@ -14114,7 +14114,7 @@
       </c>
       <c r="AY89" s="4"/>
     </row>
-    <row r="90" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A90" s="5">
         <v>45540</v>
       </c>
@@ -14249,7 +14249,7 @@
       </c>
       <c r="AY90" s="4"/>
     </row>
-    <row r="91" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A91" s="5">
         <v>45541</v>
       </c>
@@ -14384,7 +14384,7 @@
       </c>
       <c r="AY91" s="4"/>
     </row>
-    <row r="92" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A92" s="5">
         <v>45542</v>
       </c>
@@ -14519,7 +14519,7 @@
       </c>
       <c r="AY92" s="4"/>
     </row>
-    <row r="93" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A93" s="5">
         <v>45543</v>
       </c>
@@ -14654,7 +14654,7 @@
       </c>
       <c r="AY93" s="4"/>
     </row>
-    <row r="94" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A94" s="5">
         <v>45544</v>
       </c>
@@ -14789,7 +14789,7 @@
       </c>
       <c r="AY94" s="4"/>
     </row>
-    <row r="95" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A95" s="5">
         <v>45545</v>
       </c>
@@ -14924,7 +14924,7 @@
       </c>
       <c r="AY95" s="4"/>
     </row>
-    <row r="96" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A96" s="5">
         <v>45546</v>
       </c>
@@ -15059,7 +15059,7 @@
       </c>
       <c r="AY96" s="4"/>
     </row>
-    <row r="97" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A97" s="5">
         <v>45547</v>
       </c>
@@ -15194,7 +15194,7 @@
       </c>
       <c r="AY97" s="4"/>
     </row>
-    <row r="98" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A98" s="5">
         <v>45548</v>
       </c>
@@ -15329,7 +15329,7 @@
       </c>
       <c r="AY98" s="4"/>
     </row>
-    <row r="99" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A99" s="5">
         <v>45549</v>
       </c>
@@ -15464,7 +15464,7 @@
       </c>
       <c r="AY99" s="4"/>
     </row>
-    <row r="100" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A100" s="5">
         <v>45550</v>
       </c>
@@ -15599,7 +15599,7 @@
       </c>
       <c r="AY100" s="4"/>
     </row>
-    <row r="101" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A101" s="5">
         <v>45551</v>
       </c>
@@ -15734,7 +15734,7 @@
       </c>
       <c r="AY101" s="4"/>
     </row>
-    <row r="102" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A102" s="5">
         <v>45552</v>
       </c>
@@ -15869,7 +15869,7 @@
       </c>
       <c r="AY102" s="4"/>
     </row>
-    <row r="103" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A103" s="5">
         <v>45553</v>
       </c>
@@ -16004,7 +16004,7 @@
       </c>
       <c r="AY103" s="4"/>
     </row>
-    <row r="104" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A104" s="5">
         <v>45554</v>
       </c>
@@ -16139,7 +16139,7 @@
       </c>
       <c r="AY104" s="4"/>
     </row>
-    <row r="105" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A105" s="5">
         <v>45555</v>
       </c>
@@ -16274,7 +16274,7 @@
       </c>
       <c r="AY105" s="4"/>
     </row>
-    <row r="106" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A106" s="5">
         <v>45556</v>
       </c>
@@ -16409,7 +16409,7 @@
       </c>
       <c r="AY106" s="4"/>
     </row>
-    <row r="107" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A107" s="5">
         <v>45557</v>
       </c>
@@ -16544,7 +16544,7 @@
       </c>
       <c r="AY107" s="4"/>
     </row>
-    <row r="108" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A108" s="5">
         <v>45558</v>
       </c>
@@ -16679,7 +16679,7 @@
       </c>
       <c r="AY108" s="4"/>
     </row>
-    <row r="109" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A109" s="5">
         <v>45559</v>
       </c>
@@ -16812,7 +16812,7 @@
       </c>
       <c r="AY109" s="4"/>
     </row>
-    <row r="110" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A110" s="5">
         <v>45560</v>
       </c>
@@ -16945,7 +16945,7 @@
       </c>
       <c r="AY110" s="4"/>
     </row>
-    <row r="111" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A111" s="5">
         <v>45561</v>
       </c>
@@ -17078,7 +17078,7 @@
       </c>
       <c r="AY111" s="4"/>
     </row>
-    <row r="112" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A112" s="5">
         <v>45562</v>
       </c>
@@ -17211,7 +17211,7 @@
       </c>
       <c r="AY112" s="4"/>
     </row>
-    <row r="113" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A113" s="5">
         <v>45563</v>
       </c>
@@ -17344,7 +17344,7 @@
       </c>
       <c r="AY113" s="4"/>
     </row>
-    <row r="114" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A114" s="5">
         <v>45564</v>
       </c>
@@ -17477,7 +17477,7 @@
       </c>
       <c r="AY114" s="4"/>
     </row>
-    <row r="115" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A115" s="5">
         <v>45565</v>
       </c>
@@ -17610,7 +17610,7 @@
       </c>
       <c r="AY115" s="4"/>
     </row>
-    <row r="116" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A116" s="5">
         <v>45566</v>
       </c>
@@ -17743,7 +17743,7 @@
       </c>
       <c r="AY116" s="4"/>
     </row>
-    <row r="117" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A117" s="5">
         <v>45567</v>
       </c>
@@ -17876,7 +17876,7 @@
       </c>
       <c r="AY117" s="4"/>
     </row>
-    <row r="118" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A118" s="5">
         <v>45568</v>
       </c>
@@ -18009,7 +18009,7 @@
       </c>
       <c r="AY118" s="4"/>
     </row>
-    <row r="119" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A119" s="5">
         <v>45569</v>
       </c>
@@ -18142,7 +18142,7 @@
       </c>
       <c r="AY119" s="4"/>
     </row>
-    <row r="120" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A120" s="5">
         <v>45570</v>
       </c>
@@ -18275,7 +18275,7 @@
       </c>
       <c r="AY120" s="4"/>
     </row>
-    <row r="121" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A121" s="5">
         <v>45571</v>
       </c>
@@ -18408,7 +18408,7 @@
       </c>
       <c r="AY121" s="4"/>
     </row>
-    <row r="122" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A122" s="5">
         <v>45572</v>
       </c>
@@ -18541,7 +18541,7 @@
       </c>
       <c r="AY122" s="4"/>
     </row>
-    <row r="123" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A123" s="5">
         <v>45573</v>
       </c>
@@ -18674,7 +18674,7 @@
       </c>
       <c r="AY123" s="4"/>
     </row>
-    <row r="124" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A124" s="5">
         <v>45574</v>
       </c>
@@ -18807,7 +18807,7 @@
       </c>
       <c r="AY124" s="4"/>
     </row>
-    <row r="125" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A125" s="5">
         <v>45575</v>
       </c>
@@ -18940,7 +18940,7 @@
       </c>
       <c r="AY125" s="4"/>
     </row>
-    <row r="126" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A126" s="5">
         <v>45576</v>
       </c>
@@ -19073,7 +19073,7 @@
       </c>
       <c r="AY126" s="4"/>
     </row>
-    <row r="127" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A127" s="5">
         <v>45577</v>
       </c>
@@ -19206,7 +19206,7 @@
       </c>
       <c r="AY127" s="4"/>
     </row>
-    <row r="128" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A128" s="5">
         <v>45578</v>
       </c>
@@ -19339,7 +19339,7 @@
       </c>
       <c r="AY128" s="4"/>
     </row>
-    <row r="129" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A129" s="5">
         <v>45579</v>
       </c>
@@ -19472,7 +19472,7 @@
       </c>
       <c r="AY129" s="4"/>
     </row>
-    <row r="130" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A130" s="5">
         <v>45580</v>
       </c>
@@ -19605,7 +19605,7 @@
       </c>
       <c r="AY130" s="4"/>
     </row>
-    <row r="131" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A131" s="5">
         <v>45581</v>
       </c>
@@ -19738,7 +19738,7 @@
       </c>
       <c r="AY131" s="4"/>
     </row>
-    <row r="132" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A132" s="5">
         <v>45582</v>
       </c>
@@ -19871,7 +19871,7 @@
       </c>
       <c r="AY132" s="4"/>
     </row>
-    <row r="133" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A133" s="5">
         <v>45583</v>
       </c>
@@ -20004,7 +20004,7 @@
       </c>
       <c r="AY133" s="4"/>
     </row>
-    <row r="134" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A134" s="5">
         <v>45584</v>
       </c>
@@ -20137,7 +20137,7 @@
       </c>
       <c r="AY134" s="4"/>
     </row>
-    <row r="135" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A135" s="5">
         <v>45585</v>
       </c>
@@ -20270,7 +20270,7 @@
       </c>
       <c r="AY135" s="4"/>
     </row>
-    <row r="136" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A136" s="5">
         <v>45586</v>
       </c>
@@ -20403,7 +20403,7 @@
       </c>
       <c r="AY136" s="4"/>
     </row>
-    <row r="137" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A137" s="5">
         <v>45587</v>
       </c>
@@ -20536,7 +20536,7 @@
       </c>
       <c r="AY137" s="4"/>
     </row>
-    <row r="138" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A138" s="5">
         <v>45588</v>
       </c>
@@ -20669,7 +20669,7 @@
       </c>
       <c r="AY138" s="4"/>
     </row>
-    <row r="139" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A139" s="5">
         <v>45589</v>
       </c>
@@ -20802,7 +20802,7 @@
       </c>
       <c r="AY139" s="4"/>
     </row>
-    <row r="140" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A140" s="5">
         <v>45590</v>
       </c>
@@ -20935,7 +20935,7 @@
       </c>
       <c r="AY140" s="4"/>
     </row>
-    <row r="141" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A141" s="5">
         <v>45591</v>
       </c>
@@ -21068,7 +21068,7 @@
       </c>
       <c r="AY141" s="4"/>
     </row>
-    <row r="142" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A142" s="5">
         <v>45592</v>
       </c>
@@ -21201,7 +21201,7 @@
       </c>
       <c r="AY142" s="4"/>
     </row>
-    <row r="143" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A143" s="5">
         <v>45593</v>
       </c>
@@ -21334,7 +21334,7 @@
       </c>
       <c r="AY143" s="4"/>
     </row>
-    <row r="144" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A144" s="5">
         <v>45594</v>
       </c>
@@ -21467,7 +21467,7 @@
       </c>
       <c r="AY144" s="4"/>
     </row>
-    <row r="145" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A145" s="5">
         <v>45595</v>
       </c>
@@ -21600,7 +21600,7 @@
       </c>
       <c r="AY145" s="4"/>
     </row>
-    <row r="146" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A146" s="5">
         <v>45596</v>
       </c>
@@ -21733,7 +21733,7 @@
       </c>
       <c r="AY146" s="4"/>
     </row>
-    <row r="147" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A147" s="5">
         <v>45597</v>
       </c>
@@ -21866,7 +21866,7 @@
       </c>
       <c r="AY147" s="4"/>
     </row>
-    <row r="148" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A148" s="5">
         <v>45598</v>
       </c>
@@ -21999,7 +21999,7 @@
       </c>
       <c r="AY148" s="4"/>
     </row>
-    <row r="149" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A149" s="5">
         <v>45599</v>
       </c>
@@ -22132,7 +22132,7 @@
       </c>
       <c r="AY149" s="4"/>
     </row>
-    <row r="150" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A150" s="1">
         <v>45526</v>
       </c>
@@ -22285,7 +22285,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="151" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A151" s="1">
         <v>45527</v>
       </c>
@@ -22440,7 +22440,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="152" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A152" s="1">
         <v>45528</v>
       </c>
@@ -22593,7 +22593,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="153" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A153" s="1">
         <v>45529</v>
       </c>
@@ -22748,7 +22748,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="154" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A154" s="1">
         <v>45530</v>
       </c>
@@ -22903,7 +22903,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="155" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A155" s="1">
         <v>45531</v>
       </c>
@@ -23056,7 +23056,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="156" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A156" s="1">
         <v>45532</v>
       </c>
@@ -23211,7 +23211,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="157" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A157" s="1">
         <v>45533</v>
       </c>
@@ -23364,7 +23364,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="158" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A158" s="1">
         <v>45534</v>
       </c>
@@ -23519,7 +23519,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="159" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A159" s="1">
         <v>45535</v>
       </c>
@@ -23674,7 +23674,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="160" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A160" s="1">
         <v>45536</v>
       </c>
@@ -23829,7 +23829,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="161" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A161" s="1">
         <v>45537</v>
       </c>
@@ -23984,7 +23984,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="162" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A162" s="1">
         <v>45538</v>
       </c>
@@ -24139,7 +24139,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="163" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A163" s="1">
         <v>45539</v>
       </c>
@@ -24294,7 +24294,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="164" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A164" s="1">
         <v>45540</v>
       </c>
@@ -24449,7 +24449,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="165" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A165" s="1">
         <v>45541</v>
       </c>
@@ -24602,7 +24602,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="166" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A166" s="1">
         <v>45542</v>
       </c>
@@ -24757,7 +24757,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="167" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A167" s="1">
         <v>45543</v>
       </c>
@@ -24910,7 +24910,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="168" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A168" s="1">
         <v>45544</v>
       </c>
@@ -25063,7 +25063,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="169" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A169" s="1">
         <v>45545</v>
       </c>
@@ -25218,7 +25218,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="170" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A170" s="1">
         <v>45546</v>
       </c>
@@ -25371,7 +25371,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="171" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A171" s="1">
         <v>45547</v>
       </c>
@@ -25526,7 +25526,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="172" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A172" s="1">
         <v>45548</v>
       </c>
@@ -25679,7 +25679,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="173" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A173" s="1">
         <v>45549</v>
       </c>
@@ -25834,7 +25834,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="174" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A174" s="1">
         <v>45550</v>
       </c>
@@ -25987,7 +25987,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="175" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A175" s="1">
         <v>45551</v>
       </c>
@@ -26140,7 +26140,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="176" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A176" s="1">
         <v>45552</v>
       </c>
@@ -26295,7 +26295,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="177" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A177" s="1">
         <v>45553</v>
       </c>
@@ -26448,7 +26448,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="178" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A178" s="1">
         <v>45554</v>
       </c>
@@ -26603,7 +26603,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="179" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A179" s="1">
         <v>45555</v>
       </c>
@@ -26758,7 +26758,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="180" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A180" s="1">
         <v>45556</v>
       </c>
@@ -26913,7 +26913,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="181" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A181" s="1">
         <v>45557</v>
       </c>
@@ -27066,7 +27066,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="182" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A182" s="1">
         <v>45558</v>
       </c>
@@ -27219,7 +27219,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="183" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A183" s="1">
         <v>45559</v>
       </c>
@@ -27372,7 +27372,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="184" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A184" s="1">
         <v>45560</v>
       </c>
@@ -27523,7 +27523,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="185" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A185" s="1">
         <v>45561</v>
       </c>
@@ -27676,7 +27676,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="186" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A186" s="1">
         <v>45562</v>
       </c>
@@ -27829,7 +27829,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="187" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A187" s="1">
         <v>45563</v>
       </c>
@@ -27982,7 +27982,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="188" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A188" s="1">
         <v>45564</v>
       </c>
@@ -28135,7 +28135,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="189" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A189" s="1">
         <v>45565</v>
       </c>
@@ -28288,7 +28288,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="190" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A190" s="1">
         <v>45566</v>
       </c>
@@ -28441,7 +28441,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="191" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A191" s="1">
         <v>45567</v>
       </c>
@@ -28594,7 +28594,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="192" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A192" s="1">
         <v>45568</v>
       </c>
@@ -28747,7 +28747,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="193" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A193" s="1">
         <v>45569</v>
       </c>
@@ -28900,7 +28900,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="194" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A194" s="1">
         <v>45570</v>
       </c>
@@ -29053,7 +29053,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="195" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A195" s="1">
         <v>45571</v>
       </c>
@@ -29206,7 +29206,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="196" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A196" s="1">
         <v>45572</v>
       </c>
@@ -29359,7 +29359,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="197" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A197" s="1">
         <v>45573</v>
       </c>
@@ -29512,7 +29512,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="198" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A198" s="1">
         <v>45574</v>
       </c>
@@ -29665,7 +29665,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="199" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A199" s="1">
         <v>45575</v>
       </c>
@@ -29818,7 +29818,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="200" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A200" s="1">
         <v>45576</v>
       </c>
@@ -29971,7 +29971,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="201" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A201" s="1">
         <v>45577</v>
       </c>
@@ -30124,7 +30124,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="202" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A202" s="1">
         <v>45578</v>
       </c>
@@ -30277,7 +30277,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="203" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A203" s="1">
         <v>45579</v>
       </c>
@@ -30430,7 +30430,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="204" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A204" s="1">
         <v>45580</v>
       </c>
@@ -30583,7 +30583,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="205" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A205" s="1">
         <v>45581</v>
       </c>
@@ -30736,7 +30736,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="206" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A206" s="1">
         <v>45582</v>
       </c>
@@ -30889,7 +30889,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="207" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A207" s="1">
         <v>45583</v>
       </c>
@@ -31042,7 +31042,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="208" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A208" s="1">
         <v>45584</v>
       </c>
@@ -31195,7 +31195,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="209" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A209" s="1">
         <v>45585</v>
       </c>
@@ -31348,7 +31348,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="210" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A210" s="1">
         <v>45586</v>
       </c>
@@ -31501,7 +31501,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="211" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A211" s="1">
         <v>45587</v>
       </c>
@@ -31654,7 +31654,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="212" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A212" s="1">
         <v>45588</v>
       </c>
@@ -31807,7 +31807,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="213" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A213" s="1">
         <v>45589</v>
       </c>
@@ -31960,7 +31960,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="214" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A214" s="1">
         <v>45590</v>
       </c>
@@ -32113,7 +32113,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="215" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A215" s="1">
         <v>45591</v>
       </c>
@@ -32266,7 +32266,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="216" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A216" s="1">
         <v>45592</v>
       </c>
@@ -32419,7 +32419,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="217" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A217" s="1">
         <v>45593</v>
       </c>
@@ -32572,7 +32572,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="218" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A218" s="1">
         <v>45594</v>
       </c>
@@ -32725,7 +32725,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="219" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A219" s="1">
         <v>45595</v>
       </c>
@@ -32878,7 +32878,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="220" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A220" s="1">
         <v>45596</v>
       </c>
@@ -33031,7 +33031,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="221" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A221" s="1">
         <v>45597</v>
       </c>
@@ -33184,7 +33184,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="222" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A222" s="1">
         <v>45598</v>
       </c>
@@ -33337,7 +33337,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="223" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A223" s="1">
         <v>45599</v>
       </c>
@@ -33490,7 +33490,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="224" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A224" s="5">
         <v>45526</v>
       </c>
@@ -33625,7 +33625,7 @@
       </c>
       <c r="AY224" s="4"/>
     </row>
-    <row r="225" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A225" s="5">
         <v>45527</v>
       </c>
@@ -33760,7 +33760,7 @@
       </c>
       <c r="AY225" s="4"/>
     </row>
-    <row r="226" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A226" s="5">
         <v>45528</v>
       </c>
@@ -33895,7 +33895,7 @@
       </c>
       <c r="AY226" s="4"/>
     </row>
-    <row r="227" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A227" s="5">
         <v>45529</v>
       </c>
@@ -34030,7 +34030,7 @@
       </c>
       <c r="AY227" s="4"/>
     </row>
-    <row r="228" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A228" s="5">
         <v>45530</v>
       </c>
@@ -34165,7 +34165,7 @@
       </c>
       <c r="AY228" s="4"/>
     </row>
-    <row r="229" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A229" s="5">
         <v>45531</v>
       </c>
@@ -34300,7 +34300,7 @@
       </c>
       <c r="AY229" s="4"/>
     </row>
-    <row r="230" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A230" s="5">
         <v>45532</v>
       </c>
@@ -34435,7 +34435,7 @@
       </c>
       <c r="AY230" s="4"/>
     </row>
-    <row r="231" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A231" s="5">
         <v>45533</v>
       </c>
@@ -34570,7 +34570,7 @@
       </c>
       <c r="AY231" s="4"/>
     </row>
-    <row r="232" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A232" s="5">
         <v>45534</v>
       </c>
@@ -34705,7 +34705,7 @@
       </c>
       <c r="AY232" s="4"/>
     </row>
-    <row r="233" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A233" s="5">
         <v>45535</v>
       </c>
@@ -34840,7 +34840,7 @@
       </c>
       <c r="AY233" s="4"/>
     </row>
-    <row r="234" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A234" s="5">
         <v>45536</v>
       </c>
@@ -34975,7 +34975,7 @@
       </c>
       <c r="AY234" s="4"/>
     </row>
-    <row r="235" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A235" s="5">
         <v>45537</v>
       </c>
@@ -35110,7 +35110,7 @@
       </c>
       <c r="AY235" s="4"/>
     </row>
-    <row r="236" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A236" s="5">
         <v>45538</v>
       </c>
@@ -35245,7 +35245,7 @@
       </c>
       <c r="AY236" s="4"/>
     </row>
-    <row r="237" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A237" s="5">
         <v>45539</v>
       </c>
@@ -35380,7 +35380,7 @@
       </c>
       <c r="AY237" s="4"/>
     </row>
-    <row r="238" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A238" s="5">
         <v>45540</v>
       </c>
@@ -35515,7 +35515,7 @@
       </c>
       <c r="AY238" s="4"/>
     </row>
-    <row r="239" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A239" s="5">
         <v>45541</v>
       </c>
@@ -35650,7 +35650,7 @@
       </c>
       <c r="AY239" s="4"/>
     </row>
-    <row r="240" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A240" s="5">
         <v>45542</v>
       </c>
@@ -35785,7 +35785,7 @@
       </c>
       <c r="AY240" s="4"/>
     </row>
-    <row r="241" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A241" s="5">
         <v>45543</v>
       </c>
@@ -35920,7 +35920,7 @@
       </c>
       <c r="AY241" s="4"/>
     </row>
-    <row r="242" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A242" s="5">
         <v>45544</v>
       </c>
@@ -36055,7 +36055,7 @@
       </c>
       <c r="AY242" s="4"/>
     </row>
-    <row r="243" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A243" s="5">
         <v>45545</v>
       </c>
@@ -36190,7 +36190,7 @@
       </c>
       <c r="AY243" s="4"/>
     </row>
-    <row r="244" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A244" s="5">
         <v>45546</v>
       </c>
@@ -36325,7 +36325,7 @@
       </c>
       <c r="AY244" s="4"/>
     </row>
-    <row r="245" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A245" s="5">
         <v>45547</v>
       </c>
@@ -36460,7 +36460,7 @@
       </c>
       <c r="AY245" s="4"/>
     </row>
-    <row r="246" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A246" s="5">
         <v>45548</v>
       </c>
@@ -36595,7 +36595,7 @@
       </c>
       <c r="AY246" s="4"/>
     </row>
-    <row r="247" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A247" s="5">
         <v>45549</v>
       </c>
@@ -36730,7 +36730,7 @@
       </c>
       <c r="AY247" s="4"/>
     </row>
-    <row r="248" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A248" s="5">
         <v>45550</v>
       </c>
@@ -36865,7 +36865,7 @@
       </c>
       <c r="AY248" s="4"/>
     </row>
-    <row r="249" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A249" s="5">
         <v>45551</v>
       </c>
@@ -37000,7 +37000,7 @@
       </c>
       <c r="AY249" s="4"/>
     </row>
-    <row r="250" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A250" s="5">
         <v>45552</v>
       </c>
@@ -37135,7 +37135,7 @@
       </c>
       <c r="AY250" s="4"/>
     </row>
-    <row r="251" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A251" s="5">
         <v>45553</v>
       </c>
@@ -37270,7 +37270,7 @@
       </c>
       <c r="AY251" s="4"/>
     </row>
-    <row r="252" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A252" s="5">
         <v>45554</v>
       </c>
@@ -37405,7 +37405,7 @@
       </c>
       <c r="AY252" s="4"/>
     </row>
-    <row r="253" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A253" s="5">
         <v>45555</v>
       </c>
@@ -37540,7 +37540,7 @@
       </c>
       <c r="AY253" s="4"/>
     </row>
-    <row r="254" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A254" s="5">
         <v>45556</v>
       </c>
@@ -37675,7 +37675,7 @@
       </c>
       <c r="AY254" s="4"/>
     </row>
-    <row r="255" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A255" s="5">
         <v>45557</v>
       </c>
@@ -37810,7 +37810,7 @@
       </c>
       <c r="AY255" s="4"/>
     </row>
-    <row r="256" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A256" s="5">
         <v>45558</v>
       </c>
@@ -37945,7 +37945,7 @@
       </c>
       <c r="AY256" s="4"/>
     </row>
-    <row r="257" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A257" s="5">
         <v>45559</v>
       </c>
@@ -38080,7 +38080,7 @@
       </c>
       <c r="AY257" s="4"/>
     </row>
-    <row r="258" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A258" s="5">
         <v>45560</v>
       </c>
@@ -38215,7 +38215,7 @@
       </c>
       <c r="AY258" s="4"/>
     </row>
-    <row r="259" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A259" s="5">
         <v>45561</v>
       </c>
@@ -38350,7 +38350,7 @@
       </c>
       <c r="AY259" s="4"/>
     </row>
-    <row r="260" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A260" s="5">
         <v>45562</v>
       </c>
@@ -38485,7 +38485,7 @@
       </c>
       <c r="AY260" s="4"/>
     </row>
-    <row r="261" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A261" s="5">
         <v>45563</v>
       </c>
@@ -38620,7 +38620,7 @@
       </c>
       <c r="AY261" s="4"/>
     </row>
-    <row r="262" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A262" s="5">
         <v>45564</v>
       </c>
@@ -38755,7 +38755,7 @@
       </c>
       <c r="AY262" s="4"/>
     </row>
-    <row r="263" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A263" s="5">
         <v>45565</v>
       </c>
@@ -38890,7 +38890,7 @@
       </c>
       <c r="AY263" s="4"/>
     </row>
-    <row r="264" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A264" s="5">
         <v>45566</v>
       </c>
@@ -39025,7 +39025,7 @@
       </c>
       <c r="AY264" s="4"/>
     </row>
-    <row r="265" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A265" s="5">
         <v>45567</v>
       </c>
@@ -39160,7 +39160,7 @@
       </c>
       <c r="AY265" s="4"/>
     </row>
-    <row r="266" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A266" s="5">
         <v>45568</v>
       </c>
@@ -39295,7 +39295,7 @@
       </c>
       <c r="AY266" s="4"/>
     </row>
-    <row r="267" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A267" s="5">
         <v>45569</v>
       </c>
@@ -39430,7 +39430,7 @@
       </c>
       <c r="AY267" s="4"/>
     </row>
-    <row r="268" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A268" s="5">
         <v>45570</v>
       </c>
@@ -39565,7 +39565,7 @@
       </c>
       <c r="AY268" s="4"/>
     </row>
-    <row r="269" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A269" s="5">
         <v>45571</v>
       </c>
@@ -39700,7 +39700,7 @@
       </c>
       <c r="AY269" s="4"/>
     </row>
-    <row r="270" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A270" s="5">
         <v>45572</v>
       </c>
@@ -39835,7 +39835,7 @@
       </c>
       <c r="AY270" s="4"/>
     </row>
-    <row r="271" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A271" s="5">
         <v>45573</v>
       </c>
@@ -39970,7 +39970,7 @@
       </c>
       <c r="AY271" s="4"/>
     </row>
-    <row r="272" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A272" s="5">
         <v>45574</v>
       </c>
@@ -40105,7 +40105,7 @@
       </c>
       <c r="AY272" s="4"/>
     </row>
-    <row r="273" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A273" s="5">
         <v>45575</v>
       </c>
@@ -40240,7 +40240,7 @@
       </c>
       <c r="AY273" s="4"/>
     </row>
-    <row r="274" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A274" s="5">
         <v>45576</v>
       </c>
@@ -40375,7 +40375,7 @@
       </c>
       <c r="AY274" s="4"/>
     </row>
-    <row r="275" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A275" s="5">
         <v>45577</v>
       </c>
@@ -40510,7 +40510,7 @@
       </c>
       <c r="AY275" s="4"/>
     </row>
-    <row r="276" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A276" s="5">
         <v>45578</v>
       </c>
@@ -40645,7 +40645,7 @@
       </c>
       <c r="AY276" s="4"/>
     </row>
-    <row r="277" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A277" s="5">
         <v>45579</v>
       </c>
@@ -40780,7 +40780,7 @@
       </c>
       <c r="AY277" s="4"/>
     </row>
-    <row r="278" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A278" s="5">
         <v>45580</v>
       </c>
@@ -40915,7 +40915,7 @@
       </c>
       <c r="AY278" s="4"/>
     </row>
-    <row r="279" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A279" s="5">
         <v>45581</v>
       </c>
@@ -41050,7 +41050,7 @@
       </c>
       <c r="AY279" s="4"/>
     </row>
-    <row r="280" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A280" s="5">
         <v>45582</v>
       </c>
@@ -41185,7 +41185,7 @@
       </c>
       <c r="AY280" s="4"/>
     </row>
-    <row r="281" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A281" s="5">
         <v>45583</v>
       </c>
@@ -41320,7 +41320,7 @@
       </c>
       <c r="AY281" s="4"/>
     </row>
-    <row r="282" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A282" s="5">
         <v>45584</v>
       </c>
@@ -41455,7 +41455,7 @@
       </c>
       <c r="AY282" s="4"/>
     </row>
-    <row r="283" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A283" s="5">
         <v>45585</v>
       </c>
@@ -41590,7 +41590,7 @@
       </c>
       <c r="AY283" s="4"/>
     </row>
-    <row r="284" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A284" s="5">
         <v>45586</v>
       </c>
@@ -41725,7 +41725,7 @@
       </c>
       <c r="AY284" s="4"/>
     </row>
-    <row r="285" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A285" s="5">
         <v>45587</v>
       </c>
@@ -41860,7 +41860,7 @@
       </c>
       <c r="AY285" s="4"/>
     </row>
-    <row r="286" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A286" s="5">
         <v>45588</v>
       </c>
@@ -41995,7 +41995,7 @@
       </c>
       <c r="AY286" s="4"/>
     </row>
-    <row r="287" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A287" s="5">
         <v>45589</v>
       </c>
@@ -42130,7 +42130,7 @@
       </c>
       <c r="AY287" s="4"/>
     </row>
-    <row r="288" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A288" s="5">
         <v>45590</v>
       </c>
@@ -42265,7 +42265,7 @@
       </c>
       <c r="AY288" s="4"/>
     </row>
-    <row r="289" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A289" s="5">
         <v>45591</v>
       </c>
@@ -42400,7 +42400,7 @@
       </c>
       <c r="AY289" s="4"/>
     </row>
-    <row r="290" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A290" s="5">
         <v>45592</v>
       </c>
@@ -42535,7 +42535,7 @@
       </c>
       <c r="AY290" s="4"/>
     </row>
-    <row r="291" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A291" s="5">
         <v>45593</v>
       </c>
@@ -42670,7 +42670,7 @@
       </c>
       <c r="AY291" s="4"/>
     </row>
-    <row r="292" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A292" s="5">
         <v>45594</v>
       </c>
@@ -42805,7 +42805,7 @@
       </c>
       <c r="AY292" s="4"/>
     </row>
-    <row r="293" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A293" s="5">
         <v>45595</v>
       </c>
@@ -42940,7 +42940,7 @@
       </c>
       <c r="AY293" s="4"/>
     </row>
-    <row r="294" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A294" s="5">
         <v>45596</v>
       </c>
@@ -43075,7 +43075,7 @@
       </c>
       <c r="AY294" s="4"/>
     </row>
-    <row r="295" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A295" s="5">
         <v>45597</v>
       </c>
@@ -43210,7 +43210,7 @@
       </c>
       <c r="AY295" s="4"/>
     </row>
-    <row r="296" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A296" s="5">
         <v>45598</v>
       </c>
@@ -43345,7 +43345,7 @@
       </c>
       <c r="AY296" s="4"/>
     </row>
-    <row r="297" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A297" s="5">
         <v>45599</v>
       </c>
@@ -43480,7 +43480,7 @@
       </c>
       <c r="AY297" s="4"/>
     </row>
-    <row r="298" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A298" s="1">
         <v>45526</v>
       </c>
@@ -43615,7 +43615,7 @@
       </c>
       <c r="AY298" s="4"/>
     </row>
-    <row r="299" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A299" s="1">
         <v>45527</v>
       </c>
@@ -43750,7 +43750,7 @@
       </c>
       <c r="AY299" s="4"/>
     </row>
-    <row r="300" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A300" s="1">
         <v>45528</v>
       </c>
@@ -43885,7 +43885,7 @@
       </c>
       <c r="AY300" s="4"/>
     </row>
-    <row r="301" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A301" s="1">
         <v>45529</v>
       </c>
@@ -44020,7 +44020,7 @@
       </c>
       <c r="AY301" s="4"/>
     </row>
-    <row r="302" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A302" s="1">
         <v>45530</v>
       </c>
@@ -44155,7 +44155,7 @@
       </c>
       <c r="AY302" s="4"/>
     </row>
-    <row r="303" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A303" s="1">
         <v>45531</v>
       </c>
@@ -44290,7 +44290,7 @@
       </c>
       <c r="AY303" s="4"/>
     </row>
-    <row r="304" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A304" s="1">
         <v>45532</v>
       </c>
@@ -44425,7 +44425,7 @@
       </c>
       <c r="AY304" s="4"/>
     </row>
-    <row r="305" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A305" s="1">
         <v>45533</v>
       </c>
@@ -44560,7 +44560,7 @@
       </c>
       <c r="AY305" s="4"/>
     </row>
-    <row r="306" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A306" s="1">
         <v>45534</v>
       </c>
@@ -44695,7 +44695,7 @@
       </c>
       <c r="AY306" s="4"/>
     </row>
-    <row r="307" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A307" s="1">
         <v>45535</v>
       </c>
@@ -44830,7 +44830,7 @@
       </c>
       <c r="AY307" s="4"/>
     </row>
-    <row r="308" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A308" s="1">
         <v>45536</v>
       </c>
@@ -44945,7 +44945,7 @@
       </c>
       <c r="AY308" s="4"/>
     </row>
-    <row r="309" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A309" s="1">
         <v>45537</v>
       </c>
@@ -45060,7 +45060,7 @@
       </c>
       <c r="AY309" s="4"/>
     </row>
-    <row r="310" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A310" s="1">
         <v>45538</v>
       </c>
@@ -45175,7 +45175,7 @@
       </c>
       <c r="AY310" s="4"/>
     </row>
-    <row r="311" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A311" s="1">
         <v>45539</v>
       </c>
@@ -45290,7 +45290,7 @@
       </c>
       <c r="AY311" s="4"/>
     </row>
-    <row r="312" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A312" s="1">
         <v>45540</v>
       </c>
@@ -45425,7 +45425,7 @@
       </c>
       <c r="AY312" s="4"/>
     </row>
-    <row r="313" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A313" s="1">
         <v>45541</v>
       </c>
@@ -45560,7 +45560,7 @@
       </c>
       <c r="AY313" s="4"/>
     </row>
-    <row r="314" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A314" s="1">
         <v>45542</v>
       </c>
@@ -45695,7 +45695,7 @@
       </c>
       <c r="AY314" s="4"/>
     </row>
-    <row r="315" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A315" s="1">
         <v>45543</v>
       </c>
@@ -45830,7 +45830,7 @@
       </c>
       <c r="AY315" s="4"/>
     </row>
-    <row r="316" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A316" s="1">
         <v>45544</v>
       </c>
@@ -45965,7 +45965,7 @@
       </c>
       <c r="AY316" s="4"/>
     </row>
-    <row r="317" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A317" s="1">
         <v>45545</v>
       </c>
@@ -46100,7 +46100,7 @@
       </c>
       <c r="AY317" s="4"/>
     </row>
-    <row r="318" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A318" s="1">
         <v>45546</v>
       </c>
@@ -46235,7 +46235,7 @@
       </c>
       <c r="AY318" s="4"/>
     </row>
-    <row r="319" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A319" s="1">
         <v>45547</v>
       </c>
@@ -46370,7 +46370,7 @@
       </c>
       <c r="AY319" s="4"/>
     </row>
-    <row r="320" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A320" s="1">
         <v>45548</v>
       </c>
@@ -46505,7 +46505,7 @@
       </c>
       <c r="AY320" s="4"/>
     </row>
-    <row r="321" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A321" s="1">
         <v>45549</v>
       </c>
@@ -46640,7 +46640,7 @@
       </c>
       <c r="AY321" s="4"/>
     </row>
-    <row r="322" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A322" s="1">
         <v>45550</v>
       </c>
@@ -46775,7 +46775,7 @@
       </c>
       <c r="AY322" s="4"/>
     </row>
-    <row r="323" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A323" s="1">
         <v>45551</v>
       </c>
@@ -46910,7 +46910,7 @@
       </c>
       <c r="AY323" s="4"/>
     </row>
-    <row r="324" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A324" s="1">
         <v>45552</v>
       </c>
@@ -47045,7 +47045,7 @@
       </c>
       <c r="AY324" s="4"/>
     </row>
-    <row r="325" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A325" s="1">
         <v>45553</v>
       </c>
@@ -47180,7 +47180,7 @@
       </c>
       <c r="AY325" s="4"/>
     </row>
-    <row r="326" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A326" s="1">
         <v>45554</v>
       </c>
@@ -47315,7 +47315,7 @@
       </c>
       <c r="AY326" s="4"/>
     </row>
-    <row r="327" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A327" s="1">
         <v>45555</v>
       </c>
@@ -47450,7 +47450,7 @@
       </c>
       <c r="AY327" s="4"/>
     </row>
-    <row r="328" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A328" s="1">
         <v>45556</v>
       </c>
@@ -47585,7 +47585,7 @@
       </c>
       <c r="AY328" s="4"/>
     </row>
-    <row r="329" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A329" s="1">
         <v>45557</v>
       </c>
@@ -47720,7 +47720,7 @@
       </c>
       <c r="AY329" s="4"/>
     </row>
-    <row r="330" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A330" s="1">
         <v>45558</v>
       </c>
@@ -47855,7 +47855,7 @@
       </c>
       <c r="AY330" s="4"/>
     </row>
-    <row r="331" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A331" s="1">
         <v>45559</v>
       </c>
@@ -47990,7 +47990,7 @@
       </c>
       <c r="AY331" s="4"/>
     </row>
-    <row r="332" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A332" s="1">
         <v>45560</v>
       </c>
@@ -48125,7 +48125,7 @@
       </c>
       <c r="AY332" s="4"/>
     </row>
-    <row r="333" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A333" s="1">
         <v>45561</v>
       </c>
@@ -48260,7 +48260,7 @@
       </c>
       <c r="AY333" s="4"/>
     </row>
-    <row r="334" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A334" s="1">
         <v>45562</v>
       </c>
@@ -48395,7 +48395,7 @@
       </c>
       <c r="AY334" s="4"/>
     </row>
-    <row r="335" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A335" s="1">
         <v>45563</v>
       </c>
@@ -48530,7 +48530,7 @@
       </c>
       <c r="AY335" s="4"/>
     </row>
-    <row r="336" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A336" s="1">
         <v>45564</v>
       </c>
@@ -48665,7 +48665,7 @@
       </c>
       <c r="AY336" s="4"/>
     </row>
-    <row r="337" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A337" s="1">
         <v>45565</v>
       </c>
@@ -48800,7 +48800,7 @@
       </c>
       <c r="AY337" s="4"/>
     </row>
-    <row r="338" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A338" s="1">
         <v>45566</v>
       </c>
@@ -48935,7 +48935,7 @@
       </c>
       <c r="AY338" s="4"/>
     </row>
-    <row r="339" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A339" s="1">
         <v>45567</v>
       </c>
@@ -49070,7 +49070,7 @@
       </c>
       <c r="AY339" s="4"/>
     </row>
-    <row r="340" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A340" s="1">
         <v>45568</v>
       </c>
@@ -49205,7 +49205,7 @@
       </c>
       <c r="AY340" s="4"/>
     </row>
-    <row r="341" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A341" s="1">
         <v>45569</v>
       </c>
@@ -49340,7 +49340,7 @@
       </c>
       <c r="AY341" s="4"/>
     </row>
-    <row r="342" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A342" s="1">
         <v>45570</v>
       </c>
@@ -49475,7 +49475,7 @@
       </c>
       <c r="AY342" s="4"/>
     </row>
-    <row r="343" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A343" s="1">
         <v>45571</v>
       </c>
@@ -49610,7 +49610,7 @@
       </c>
       <c r="AY343" s="4"/>
     </row>
-    <row r="344" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A344" s="1">
         <v>45572</v>
       </c>
@@ -49745,7 +49745,7 @@
       </c>
       <c r="AY344" s="4"/>
     </row>
-    <row r="345" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A345" s="1">
         <v>45573</v>
       </c>
@@ -49880,7 +49880,7 @@
       </c>
       <c r="AY345" s="4"/>
     </row>
-    <row r="346" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A346" s="1">
         <v>45574</v>
       </c>
@@ -50015,7 +50015,7 @@
       </c>
       <c r="AY346" s="4"/>
     </row>
-    <row r="347" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A347" s="1">
         <v>45575</v>
       </c>
@@ -50150,7 +50150,7 @@
       </c>
       <c r="AY347" s="4"/>
     </row>
-    <row r="348" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A348" s="1">
         <v>45576</v>
       </c>
@@ -50285,7 +50285,7 @@
       </c>
       <c r="AY348" s="4"/>
     </row>
-    <row r="349" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A349" s="1">
         <v>45577</v>
       </c>
@@ -50420,7 +50420,7 @@
       </c>
       <c r="AY349" s="4"/>
     </row>
-    <row r="350" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A350" s="1">
         <v>45578</v>
       </c>
@@ -50555,7 +50555,7 @@
       </c>
       <c r="AY350" s="4"/>
     </row>
-    <row r="351" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A351" s="1">
         <v>45579</v>
       </c>
@@ -50690,7 +50690,7 @@
       </c>
       <c r="AY351" s="4"/>
     </row>
-    <row r="352" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A352" s="1">
         <v>45580</v>
       </c>
@@ -50825,7 +50825,7 @@
       </c>
       <c r="AY352" s="4"/>
     </row>
-    <row r="353" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A353" s="1">
         <v>45581</v>
       </c>
@@ -50960,7 +50960,7 @@
       </c>
       <c r="AY353" s="4"/>
     </row>
-    <row r="354" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A354" s="1">
         <v>45582</v>
       </c>
@@ -51095,7 +51095,7 @@
       </c>
       <c r="AY354" s="4"/>
     </row>
-    <row r="355" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A355" s="1">
         <v>45583</v>
       </c>
@@ -51230,7 +51230,7 @@
       </c>
       <c r="AY355" s="4"/>
     </row>
-    <row r="356" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A356" s="1">
         <v>45584</v>
       </c>
@@ -51365,7 +51365,7 @@
       </c>
       <c r="AY356" s="4"/>
     </row>
-    <row r="357" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A357" s="1">
         <v>45585</v>
       </c>
@@ -51500,7 +51500,7 @@
       </c>
       <c r="AY357" s="4"/>
     </row>
-    <row r="358" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A358" s="1">
         <v>45586</v>
       </c>
@@ -51635,7 +51635,7 @@
       </c>
       <c r="AY358" s="4"/>
     </row>
-    <row r="359" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A359" s="1">
         <v>45587</v>
       </c>
@@ -51770,7 +51770,7 @@
       </c>
       <c r="AY359" s="4"/>
     </row>
-    <row r="360" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A360" s="1">
         <v>45588</v>
       </c>
@@ -51905,7 +51905,7 @@
       </c>
       <c r="AY360" s="4"/>
     </row>
-    <row r="361" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A361" s="1">
         <v>45589</v>
       </c>
@@ -52040,7 +52040,7 @@
       </c>
       <c r="AY361" s="4"/>
     </row>
-    <row r="362" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A362" s="1">
         <v>45590</v>
       </c>
@@ -52175,7 +52175,7 @@
       </c>
       <c r="AY362" s="4"/>
     </row>
-    <row r="363" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A363" s="1">
         <v>45591</v>
       </c>
@@ -52310,7 +52310,7 @@
       </c>
       <c r="AY363" s="4"/>
     </row>
-    <row r="364" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A364" s="1">
         <v>45592</v>
       </c>
@@ -52445,7 +52445,7 @@
       </c>
       <c r="AY364" s="4"/>
     </row>
-    <row r="365" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A365" s="1">
         <v>45593</v>
       </c>
@@ -52580,7 +52580,7 @@
       </c>
       <c r="AY365" s="4"/>
     </row>
-    <row r="366" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A366" s="1">
         <v>45594</v>
       </c>
@@ -52715,7 +52715,7 @@
       </c>
       <c r="AY366" s="4"/>
     </row>
-    <row r="367" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="367" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A367" s="1">
         <v>45595</v>
       </c>
@@ -52850,7 +52850,7 @@
       </c>
       <c r="AY367" s="4"/>
     </row>
-    <row r="368" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A368" s="1">
         <v>45596</v>
       </c>
@@ -52985,7 +52985,7 @@
       </c>
       <c r="AY368" s="4"/>
     </row>
-    <row r="369" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="369" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A369" s="1">
         <v>45597</v>
       </c>
@@ -53120,7 +53120,7 @@
       </c>
       <c r="AY369" s="4"/>
     </row>
-    <row r="370" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="370" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A370" s="1">
         <v>45598</v>
       </c>
@@ -53255,7 +53255,7 @@
       </c>
       <c r="AY370" s="4"/>
     </row>
-    <row r="371" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="371" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A371" s="1">
         <v>45599</v>
       </c>
@@ -53390,7 +53390,7 @@
       </c>
       <c r="AY371" s="4"/>
     </row>
-    <row r="372" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="372" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A372" s="5">
         <v>45526</v>
       </c>
@@ -53525,7 +53525,7 @@
       </c>
       <c r="AY372" s="4"/>
     </row>
-    <row r="373" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="373" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A373" s="5">
         <v>45527</v>
       </c>
@@ -53660,7 +53660,7 @@
       </c>
       <c r="AY373" s="4"/>
     </row>
-    <row r="374" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="374" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A374" s="5">
         <v>45528</v>
       </c>
@@ -53795,7 +53795,7 @@
       </c>
       <c r="AY374" s="4"/>
     </row>
-    <row r="375" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="375" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A375" s="5">
         <v>45529</v>
       </c>
@@ -53930,7 +53930,7 @@
       </c>
       <c r="AY375" s="4"/>
     </row>
-    <row r="376" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="376" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A376" s="5">
         <v>45530</v>
       </c>
@@ -54065,7 +54065,7 @@
       </c>
       <c r="AY376" s="4"/>
     </row>
-    <row r="377" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="377" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A377" s="5">
         <v>45531</v>
       </c>
@@ -54200,7 +54200,7 @@
       </c>
       <c r="AY377" s="4"/>
     </row>
-    <row r="378" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="378" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A378" s="5">
         <v>45532</v>
       </c>
@@ -54335,7 +54335,7 @@
       </c>
       <c r="AY378" s="4"/>
     </row>
-    <row r="379" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="379" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A379" s="5">
         <v>45533</v>
       </c>
@@ -54470,7 +54470,7 @@
       </c>
       <c r="AY379" s="4"/>
     </row>
-    <row r="380" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="380" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A380" s="5">
         <v>45534</v>
       </c>
@@ -54605,7 +54605,7 @@
       </c>
       <c r="AY380" s="4"/>
     </row>
-    <row r="381" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="381" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A381" s="5">
         <v>45535</v>
       </c>
@@ -54740,7 +54740,7 @@
       </c>
       <c r="AY381" s="4"/>
     </row>
-    <row r="382" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="382" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A382" s="5">
         <v>45536</v>
       </c>
@@ -54875,7 +54875,7 @@
       </c>
       <c r="AY382" s="4"/>
     </row>
-    <row r="383" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="383" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A383" s="5">
         <v>45537</v>
       </c>
@@ -54990,7 +54990,7 @@
       </c>
       <c r="AY383" s="4"/>
     </row>
-    <row r="384" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="384" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A384" s="5">
         <v>45538</v>
       </c>
@@ -55105,7 +55105,7 @@
       </c>
       <c r="AY384" s="4"/>
     </row>
-    <row r="385" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="385" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A385" s="5">
         <v>45539</v>
       </c>
@@ -55240,7 +55240,7 @@
       </c>
       <c r="AY385" s="4"/>
     </row>
-    <row r="386" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="386" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A386" s="5">
         <v>45540</v>
       </c>
@@ -55375,7 +55375,7 @@
       </c>
       <c r="AY386" s="4"/>
     </row>
-    <row r="387" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="387" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A387" s="5">
         <v>45541</v>
       </c>
@@ -55510,7 +55510,7 @@
       </c>
       <c r="AY387" s="4"/>
     </row>
-    <row r="388" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="388" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A388" s="5">
         <v>45542</v>
       </c>
@@ -55645,7 +55645,7 @@
       </c>
       <c r="AY388" s="4"/>
     </row>
-    <row r="389" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="389" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A389" s="5">
         <v>45543</v>
       </c>
@@ -55780,7 +55780,7 @@
       </c>
       <c r="AY389" s="4"/>
     </row>
-    <row r="390" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="390" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A390" s="5">
         <v>45544</v>
       </c>
@@ -55915,7 +55915,7 @@
       </c>
       <c r="AY390" s="4"/>
     </row>
-    <row r="391" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="391" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A391" s="5">
         <v>45545</v>
       </c>
@@ -56050,7 +56050,7 @@
       </c>
       <c r="AY391" s="4"/>
     </row>
-    <row r="392" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="392" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A392" s="5">
         <v>45546</v>
       </c>
@@ -56185,7 +56185,7 @@
       </c>
       <c r="AY392" s="4"/>
     </row>
-    <row r="393" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="393" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A393" s="5">
         <v>45547</v>
       </c>
@@ -56320,7 +56320,7 @@
       </c>
       <c r="AY393" s="4"/>
     </row>
-    <row r="394" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="394" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A394" s="5">
         <v>45548</v>
       </c>
@@ -56455,7 +56455,7 @@
       </c>
       <c r="AY394" s="4"/>
     </row>
-    <row r="395" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="395" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A395" s="5">
         <v>45549</v>
       </c>
@@ -56590,7 +56590,7 @@
       </c>
       <c r="AY395" s="4"/>
     </row>
-    <row r="396" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="396" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A396" s="5">
         <v>45550</v>
       </c>
@@ -56725,7 +56725,7 @@
       </c>
       <c r="AY396" s="4"/>
     </row>
-    <row r="397" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="397" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A397" s="5">
         <v>45551</v>
       </c>
@@ -56860,7 +56860,7 @@
       </c>
       <c r="AY397" s="4"/>
     </row>
-    <row r="398" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="398" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A398" s="5">
         <v>45552</v>
       </c>
@@ -56995,7 +56995,7 @@
       </c>
       <c r="AY398" s="4"/>
     </row>
-    <row r="399" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="399" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A399" s="5">
         <v>45553</v>
       </c>
@@ -57130,7 +57130,7 @@
       </c>
       <c r="AY399" s="4"/>
     </row>
-    <row r="400" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="400" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A400" s="5">
         <v>45554</v>
       </c>
@@ -57265,7 +57265,7 @@
       </c>
       <c r="AY400" s="4"/>
     </row>
-    <row r="401" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="401" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A401" s="5">
         <v>45555</v>
       </c>
@@ -57400,7 +57400,7 @@
       </c>
       <c r="AY401" s="4"/>
     </row>
-    <row r="402" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="402" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A402" s="5">
         <v>45556</v>
       </c>
@@ -57535,7 +57535,7 @@
       </c>
       <c r="AY402" s="4"/>
     </row>
-    <row r="403" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="403" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A403" s="5">
         <v>45557</v>
       </c>
@@ -57670,7 +57670,7 @@
       </c>
       <c r="AY403" s="4"/>
     </row>
-    <row r="404" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="404" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A404" s="5">
         <v>45558</v>
       </c>
@@ -57805,7 +57805,7 @@
       </c>
       <c r="AY404" s="4"/>
     </row>
-    <row r="405" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="405" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A405" s="5">
         <v>45559</v>
       </c>
@@ -57940,7 +57940,7 @@
       </c>
       <c r="AY405" s="4"/>
     </row>
-    <row r="406" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="406" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A406" s="5">
         <v>45560</v>
       </c>
@@ -58075,7 +58075,7 @@
       </c>
       <c r="AY406" s="4"/>
     </row>
-    <row r="407" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="407" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A407" s="5">
         <v>45561</v>
       </c>
@@ -58210,7 +58210,7 @@
       </c>
       <c r="AY407" s="4"/>
     </row>
-    <row r="408" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="408" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A408" s="5">
         <v>45562</v>
       </c>
@@ -58345,7 +58345,7 @@
       </c>
       <c r="AY408" s="4"/>
     </row>
-    <row r="409" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="409" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A409" s="5">
         <v>45563</v>
       </c>
@@ -58480,7 +58480,7 @@
       </c>
       <c r="AY409" s="4"/>
     </row>
-    <row r="410" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="410" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A410" s="5">
         <v>45564</v>
       </c>
@@ -58615,7 +58615,7 @@
       </c>
       <c r="AY410" s="4"/>
     </row>
-    <row r="411" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="411" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A411" s="5">
         <v>45565</v>
       </c>
@@ -58750,7 +58750,7 @@
       </c>
       <c r="AY411" s="4"/>
     </row>
-    <row r="412" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="412" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A412" s="5">
         <v>45566</v>
       </c>
@@ -58885,7 +58885,7 @@
       </c>
       <c r="AY412" s="4"/>
     </row>
-    <row r="413" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="413" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A413" s="5">
         <v>45567</v>
       </c>
@@ -59020,7 +59020,7 @@
       </c>
       <c r="AY413" s="4"/>
     </row>
-    <row r="414" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="414" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A414" s="5">
         <v>45568</v>
       </c>
@@ -59155,7 +59155,7 @@
       </c>
       <c r="AY414" s="4"/>
     </row>
-    <row r="415" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="415" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A415" s="5">
         <v>45569</v>
       </c>
@@ -59290,7 +59290,7 @@
       </c>
       <c r="AY415" s="4"/>
     </row>
-    <row r="416" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="416" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A416" s="5">
         <v>45570</v>
       </c>
@@ -59425,7 +59425,7 @@
       </c>
       <c r="AY416" s="4"/>
     </row>
-    <row r="417" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="417" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A417" s="5">
         <v>45571</v>
       </c>
@@ -59560,7 +59560,7 @@
       </c>
       <c r="AY417" s="4"/>
     </row>
-    <row r="418" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="418" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A418" s="5">
         <v>45572</v>
       </c>
@@ -59695,7 +59695,7 @@
       </c>
       <c r="AY418" s="4"/>
     </row>
-    <row r="419" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="419" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A419" s="5">
         <v>45573</v>
       </c>
@@ -59830,7 +59830,7 @@
       </c>
       <c r="AY419" s="4"/>
     </row>
-    <row r="420" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="420" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A420" s="5">
         <v>45574</v>
       </c>
@@ -59965,7 +59965,7 @@
       </c>
       <c r="AY420" s="4"/>
     </row>
-    <row r="421" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="421" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A421" s="5">
         <v>45575</v>
       </c>
@@ -60100,7 +60100,7 @@
       </c>
       <c r="AY421" s="4"/>
     </row>
-    <row r="422" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="422" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A422" s="5">
         <v>45576</v>
       </c>
@@ -60235,7 +60235,7 @@
       </c>
       <c r="AY422" s="4"/>
     </row>
-    <row r="423" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="423" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A423" s="5">
         <v>45577</v>
       </c>
@@ -60370,7 +60370,7 @@
       </c>
       <c r="AY423" s="4"/>
     </row>
-    <row r="424" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="424" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A424" s="5">
         <v>45578</v>
       </c>
@@ -60505,7 +60505,7 @@
       </c>
       <c r="AY424" s="4"/>
     </row>
-    <row r="425" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="425" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A425" s="5">
         <v>45579</v>
       </c>
@@ -60640,7 +60640,7 @@
       </c>
       <c r="AY425" s="4"/>
     </row>
-    <row r="426" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="426" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A426" s="5">
         <v>45580</v>
       </c>
@@ -60775,7 +60775,7 @@
       </c>
       <c r="AY426" s="4"/>
     </row>
-    <row r="427" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="427" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A427" s="5">
         <v>45581</v>
       </c>
@@ -60910,7 +60910,7 @@
       </c>
       <c r="AY427" s="4"/>
     </row>
-    <row r="428" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="428" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A428" s="5">
         <v>45582</v>
       </c>
@@ -61045,7 +61045,7 @@
       </c>
       <c r="AY428" s="4"/>
     </row>
-    <row r="429" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="429" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A429" s="5">
         <v>45583</v>
       </c>
@@ -61180,7 +61180,7 @@
       </c>
       <c r="AY429" s="4"/>
     </row>
-    <row r="430" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="430" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A430" s="5">
         <v>45584</v>
       </c>
@@ -61315,7 +61315,7 @@
       </c>
       <c r="AY430" s="4"/>
     </row>
-    <row r="431" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="431" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A431" s="5">
         <v>45585</v>
       </c>
@@ -61450,7 +61450,7 @@
       </c>
       <c r="AY431" s="4"/>
     </row>
-    <row r="432" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="432" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A432" s="5">
         <v>45586</v>
       </c>
@@ -61585,7 +61585,7 @@
       </c>
       <c r="AY432" s="4"/>
     </row>
-    <row r="433" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="433" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A433" s="5">
         <v>45587</v>
       </c>
@@ -61720,7 +61720,7 @@
       </c>
       <c r="AY433" s="4"/>
     </row>
-    <row r="434" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="434" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A434" s="5">
         <v>45588</v>
       </c>
@@ -61855,7 +61855,7 @@
       </c>
       <c r="AY434" s="4"/>
     </row>
-    <row r="435" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="435" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A435" s="5">
         <v>45589</v>
       </c>
@@ -61970,7 +61970,7 @@
       </c>
       <c r="AY435" s="4"/>
     </row>
-    <row r="436" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="436" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A436" s="5">
         <v>45590</v>
       </c>
@@ -62105,7 +62105,7 @@
       </c>
       <c r="AY436" s="4"/>
     </row>
-    <row r="437" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="437" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A437" s="5">
         <v>45591</v>
       </c>
@@ -62240,7 +62240,7 @@
       </c>
       <c r="AY437" s="4"/>
     </row>
-    <row r="438" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="438" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A438" s="5">
         <v>45592</v>
       </c>
@@ -62375,7 +62375,7 @@
       </c>
       <c r="AY438" s="4"/>
     </row>
-    <row r="439" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="439" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A439" s="5">
         <v>45593</v>
       </c>
@@ -62510,7 +62510,7 @@
       </c>
       <c r="AY439" s="4"/>
     </row>
-    <row r="440" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="440" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A440" s="5">
         <v>45594</v>
       </c>
@@ -62645,7 +62645,7 @@
       </c>
       <c r="AY440" s="4"/>
     </row>
-    <row r="441" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="441" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A441" s="5">
         <v>45595</v>
       </c>
@@ -62780,7 +62780,7 @@
       </c>
       <c r="AY441" s="4"/>
     </row>
-    <row r="442" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="442" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A442" s="5">
         <v>45596</v>
       </c>
@@ -62915,7 +62915,7 @@
       </c>
       <c r="AY442" s="4"/>
     </row>
-    <row r="443" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="443" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A443" s="5">
         <v>45597</v>
       </c>
@@ -63050,7 +63050,7 @@
       </c>
       <c r="AY443" s="4"/>
     </row>
-    <row r="444" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="444" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A444" s="5">
         <v>45598</v>
       </c>
@@ -63185,7 +63185,7 @@
       </c>
       <c r="AY444" s="4"/>
     </row>
-    <row r="445" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="445" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A445" s="5">
         <v>45599</v>
       </c>
@@ -63320,7 +63320,7 @@
       </c>
       <c r="AY445" s="4"/>
     </row>
-    <row r="446" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="446" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A446" s="1">
         <v>45526</v>
       </c>
@@ -63455,7 +63455,7 @@
       </c>
       <c r="AY446" s="4"/>
     </row>
-    <row r="447" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="447" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A447" s="1">
         <v>45527</v>
       </c>
@@ -63590,7 +63590,7 @@
       </c>
       <c r="AY447" s="4"/>
     </row>
-    <row r="448" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="448" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A448" s="1">
         <v>45528</v>
       </c>
@@ -63725,7 +63725,7 @@
       </c>
       <c r="AY448" s="4"/>
     </row>
-    <row r="449" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="449" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A449" s="1">
         <v>45529</v>
       </c>
@@ -63860,7 +63860,7 @@
       </c>
       <c r="AY449" s="4"/>
     </row>
-    <row r="450" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="450" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A450" s="1">
         <v>45530</v>
       </c>
@@ -63995,7 +63995,7 @@
       </c>
       <c r="AY450" s="4"/>
     </row>
-    <row r="451" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="451" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A451" s="1">
         <v>45531</v>
       </c>
@@ -64130,7 +64130,7 @@
       </c>
       <c r="AY451" s="4"/>
     </row>
-    <row r="452" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="452" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A452" s="1">
         <v>45532</v>
       </c>
@@ -64265,7 +64265,7 @@
       </c>
       <c r="AY452" s="4"/>
     </row>
-    <row r="453" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="453" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A453" s="1">
         <v>45533</v>
       </c>
@@ -64400,7 +64400,7 @@
       </c>
       <c r="AY453" s="4"/>
     </row>
-    <row r="454" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="454" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A454" s="1">
         <v>45534</v>
       </c>
@@ -64535,7 +64535,7 @@
       </c>
       <c r="AY454" s="4"/>
     </row>
-    <row r="455" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="455" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A455" s="1">
         <v>45535</v>
       </c>
@@ -64670,7 +64670,7 @@
       </c>
       <c r="AY455" s="4"/>
     </row>
-    <row r="456" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="456" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A456" s="1">
         <v>45536</v>
       </c>
@@ -64805,7 +64805,7 @@
       </c>
       <c r="AY456" s="4"/>
     </row>
-    <row r="457" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="457" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A457" s="1">
         <v>45537</v>
       </c>
@@ -64940,7 +64940,7 @@
       </c>
       <c r="AY457" s="4"/>
     </row>
-    <row r="458" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="458" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A458" s="1">
         <v>45538</v>
       </c>
@@ -65075,7 +65075,7 @@
       </c>
       <c r="AY458" s="4"/>
     </row>
-    <row r="459" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="459" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A459" s="1">
         <v>45539</v>
       </c>
@@ -65210,7 +65210,7 @@
       </c>
       <c r="AY459" s="4"/>
     </row>
-    <row r="460" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="460" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A460" s="1">
         <v>45540</v>
       </c>
@@ -65345,7 +65345,7 @@
       </c>
       <c r="AY460" s="4"/>
     </row>
-    <row r="461" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="461" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A461" s="1">
         <v>45541</v>
       </c>
@@ -65480,7 +65480,7 @@
       </c>
       <c r="AY461" s="4"/>
     </row>
-    <row r="462" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="462" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A462" s="1">
         <v>45542</v>
       </c>
@@ -65615,7 +65615,7 @@
       </c>
       <c r="AY462" s="4"/>
     </row>
-    <row r="463" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="463" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A463" s="1">
         <v>45543</v>
       </c>
@@ -65750,7 +65750,7 @@
       </c>
       <c r="AY463" s="4"/>
     </row>
-    <row r="464" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="464" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A464" s="1">
         <v>45544</v>
       </c>
@@ -65885,7 +65885,7 @@
       </c>
       <c r="AY464" s="4"/>
     </row>
-    <row r="465" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="465" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A465" s="1">
         <v>45545</v>
       </c>
@@ -66020,7 +66020,7 @@
       </c>
       <c r="AY465" s="4"/>
     </row>
-    <row r="466" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="466" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A466" s="1">
         <v>45546</v>
       </c>
@@ -66155,7 +66155,7 @@
       </c>
       <c r="AY466" s="4"/>
     </row>
-    <row r="467" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="467" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A467" s="1">
         <v>45547</v>
       </c>
@@ -66290,7 +66290,7 @@
       </c>
       <c r="AY467" s="4"/>
     </row>
-    <row r="468" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="468" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A468" s="1">
         <v>45548</v>
       </c>
@@ -66425,7 +66425,7 @@
       </c>
       <c r="AY468" s="4"/>
     </row>
-    <row r="469" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="469" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A469" s="1">
         <v>45549</v>
       </c>
@@ -66560,7 +66560,7 @@
       </c>
       <c r="AY469" s="4"/>
     </row>
-    <row r="470" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="470" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A470" s="1">
         <v>45550</v>
       </c>
@@ -66695,7 +66695,7 @@
       </c>
       <c r="AY470" s="4"/>
     </row>
-    <row r="471" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="471" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A471" s="1">
         <v>45551</v>
       </c>
@@ -66830,7 +66830,7 @@
       </c>
       <c r="AY471" s="4"/>
     </row>
-    <row r="472" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="472" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A472" s="1">
         <v>45552</v>
       </c>
@@ -66965,7 +66965,7 @@
       </c>
       <c r="AY472" s="4"/>
     </row>
-    <row r="473" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="473" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A473" s="1">
         <v>45553</v>
       </c>
@@ -67100,7 +67100,7 @@
       </c>
       <c r="AY473" s="4"/>
     </row>
-    <row r="474" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="474" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A474" s="1">
         <v>45554</v>
       </c>
@@ -67235,7 +67235,7 @@
       </c>
       <c r="AY474" s="4"/>
     </row>
-    <row r="475" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="475" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A475" s="1">
         <v>45555</v>
       </c>
@@ -67370,7 +67370,7 @@
       </c>
       <c r="AY475" s="4"/>
     </row>
-    <row r="476" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="476" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A476" s="1">
         <v>45556</v>
       </c>
@@ -67505,7 +67505,7 @@
       </c>
       <c r="AY476" s="4"/>
     </row>
-    <row r="477" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="477" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A477" s="1">
         <v>45557</v>
       </c>
@@ -67640,7 +67640,7 @@
       </c>
       <c r="AY477" s="4"/>
     </row>
-    <row r="478" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="478" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A478" s="1">
         <v>45558</v>
       </c>
@@ -67775,7 +67775,7 @@
       </c>
       <c r="AY478" s="4"/>
     </row>
-    <row r="479" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="479" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A479" s="1">
         <v>45559</v>
       </c>
@@ -67910,7 +67910,7 @@
       </c>
       <c r="AY479" s="4"/>
     </row>
-    <row r="480" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="480" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A480" s="1">
         <v>45560</v>
       </c>
@@ -68045,7 +68045,7 @@
       </c>
       <c r="AY480" s="4"/>
     </row>
-    <row r="481" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="481" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A481" s="1">
         <v>45561</v>
       </c>
@@ -68180,7 +68180,7 @@
       </c>
       <c r="AY481" s="4"/>
     </row>
-    <row r="482" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="482" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A482" s="1">
         <v>45562</v>
       </c>
@@ -68315,7 +68315,7 @@
       </c>
       <c r="AY482" s="4"/>
     </row>
-    <row r="483" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="483" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A483" s="1">
         <v>45563</v>
       </c>
@@ -68450,7 +68450,7 @@
       </c>
       <c r="AY483" s="4"/>
     </row>
-    <row r="484" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="484" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A484" s="1">
         <v>45564</v>
       </c>
@@ -68585,7 +68585,7 @@
       </c>
       <c r="AY484" s="4"/>
     </row>
-    <row r="485" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="485" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A485" s="1">
         <v>45565</v>
       </c>
@@ -68720,7 +68720,7 @@
       </c>
       <c r="AY485" s="4"/>
     </row>
-    <row r="486" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="486" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A486" s="1">
         <v>45566</v>
       </c>
@@ -68855,7 +68855,7 @@
       </c>
       <c r="AY486" s="4"/>
     </row>
-    <row r="487" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="487" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A487" s="1">
         <v>45567</v>
       </c>
@@ -68990,7 +68990,7 @@
       </c>
       <c r="AY487" s="4"/>
     </row>
-    <row r="488" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="488" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A488" s="1">
         <v>45568</v>
       </c>
@@ -69125,7 +69125,7 @@
       </c>
       <c r="AY488" s="4"/>
     </row>
-    <row r="489" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="489" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A489" s="1">
         <v>45569</v>
       </c>
@@ -69260,7 +69260,7 @@
       </c>
       <c r="AY489" s="4"/>
     </row>
-    <row r="490" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="490" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A490" s="1">
         <v>45570</v>
       </c>
@@ -69395,7 +69395,7 @@
       </c>
       <c r="AY490" s="4"/>
     </row>
-    <row r="491" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="491" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A491" s="1">
         <v>45571</v>
       </c>
@@ -69530,7 +69530,7 @@
       </c>
       <c r="AY491" s="4"/>
     </row>
-    <row r="492" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="492" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A492" s="1">
         <v>45572</v>
       </c>
@@ -69665,7 +69665,7 @@
       </c>
       <c r="AY492" s="4"/>
     </row>
-    <row r="493" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="493" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A493" s="1">
         <v>45573</v>
       </c>
@@ -69800,7 +69800,7 @@
       </c>
       <c r="AY493" s="4"/>
     </row>
-    <row r="494" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="494" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A494" s="1">
         <v>45574</v>
       </c>
@@ -69935,7 +69935,7 @@
       </c>
       <c r="AY494" s="4"/>
     </row>
-    <row r="495" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="495" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A495" s="1">
         <v>45575</v>
       </c>
@@ -70070,7 +70070,7 @@
       </c>
       <c r="AY495" s="4"/>
     </row>
-    <row r="496" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="496" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A496" s="1">
         <v>45576</v>
       </c>
@@ -70205,7 +70205,7 @@
       </c>
       <c r="AY496" s="4"/>
     </row>
-    <row r="497" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="497" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A497" s="1">
         <v>45577</v>
       </c>
@@ -70340,7 +70340,7 @@
       </c>
       <c r="AY497" s="4"/>
     </row>
-    <row r="498" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="498" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A498" s="1">
         <v>45578</v>
       </c>
@@ -70475,7 +70475,7 @@
       </c>
       <c r="AY498" s="4"/>
     </row>
-    <row r="499" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="499" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A499" s="1">
         <v>45579</v>
       </c>
@@ -70610,7 +70610,7 @@
       </c>
       <c r="AY499" s="4"/>
     </row>
-    <row r="500" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="500" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A500" s="1">
         <v>45580</v>
       </c>
@@ -70745,7 +70745,7 @@
       </c>
       <c r="AY500" s="4"/>
     </row>
-    <row r="501" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="501" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A501" s="1">
         <v>45581</v>
       </c>
@@ -70880,7 +70880,7 @@
       </c>
       <c r="AY501" s="4"/>
     </row>
-    <row r="502" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="502" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A502" s="1">
         <v>45582</v>
       </c>
@@ -71015,7 +71015,7 @@
       </c>
       <c r="AY502" s="4"/>
     </row>
-    <row r="503" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="503" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A503" s="1">
         <v>45583</v>
       </c>
@@ -71150,7 +71150,7 @@
       </c>
       <c r="AY503" s="4"/>
     </row>
-    <row r="504" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="504" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A504" s="1">
         <v>45584</v>
       </c>
@@ -71285,7 +71285,7 @@
       </c>
       <c r="AY504" s="4"/>
     </row>
-    <row r="505" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="505" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A505" s="1">
         <v>45585</v>
       </c>
@@ -71420,7 +71420,7 @@
       </c>
       <c r="AY505" s="4"/>
     </row>
-    <row r="506" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="506" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A506" s="1">
         <v>45586</v>
       </c>
@@ -71555,7 +71555,7 @@
       </c>
       <c r="AY506" s="4"/>
     </row>
-    <row r="507" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="507" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A507" s="1">
         <v>45587</v>
       </c>
@@ -71690,7 +71690,7 @@
       </c>
       <c r="AY507" s="4"/>
     </row>
-    <row r="508" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="508" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A508" s="1">
         <v>45588</v>
       </c>
@@ -71825,7 +71825,7 @@
       </c>
       <c r="AY508" s="4"/>
     </row>
-    <row r="509" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="509" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A509" s="1">
         <v>45589</v>
       </c>
@@ -71960,7 +71960,7 @@
       </c>
       <c r="AY509" s="4"/>
     </row>
-    <row r="510" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="510" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A510" s="1">
         <v>45590</v>
       </c>
@@ -72095,7 +72095,7 @@
       </c>
       <c r="AY510" s="4"/>
     </row>
-    <row r="511" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="511" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A511" s="1">
         <v>45591</v>
       </c>
@@ -72230,7 +72230,7 @@
       </c>
       <c r="AY511" s="4"/>
     </row>
-    <row r="512" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="512" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A512" s="1">
         <v>45592</v>
       </c>
@@ -72365,7 +72365,7 @@
       </c>
       <c r="AY512" s="4"/>
     </row>
-    <row r="513" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="513" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A513" s="1">
         <v>45593</v>
       </c>
@@ -72500,7 +72500,7 @@
       </c>
       <c r="AY513" s="4"/>
     </row>
-    <row r="514" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="514" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A514" s="1">
         <v>45594</v>
       </c>
@@ -72635,7 +72635,7 @@
       </c>
       <c r="AY514" s="4"/>
     </row>
-    <row r="515" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="515" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A515" s="1">
         <v>45595</v>
       </c>
@@ -72770,7 +72770,7 @@
       </c>
       <c r="AY515" s="4"/>
     </row>
-    <row r="516" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="516" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A516" s="1">
         <v>45596</v>
       </c>
@@ -72905,7 +72905,7 @@
       </c>
       <c r="AY516" s="4"/>
     </row>
-    <row r="517" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="517" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A517" s="1">
         <v>45597</v>
       </c>
@@ -73040,7 +73040,7 @@
       </c>
       <c r="AY517" s="4"/>
     </row>
-    <row r="518" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="518" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A518" s="1">
         <v>45598</v>
       </c>
@@ -73175,7 +73175,7 @@
       </c>
       <c r="AY518" s="4"/>
     </row>
-    <row r="519" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="519" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A519" s="1">
         <v>45599</v>
       </c>
@@ -73310,7 +73310,7 @@
       </c>
       <c r="AY519" s="4"/>
     </row>
-    <row r="520" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="520" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A520" s="5">
         <v>45526</v>
       </c>
@@ -73465,7 +73465,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="521" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="521" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A521" s="5">
         <v>45527</v>
       </c>
@@ -73620,7 +73620,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="522" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="522" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A522" s="5">
         <v>45528</v>
       </c>
@@ -73775,7 +73775,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="523" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="523" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A523" s="5">
         <v>45529</v>
       </c>
@@ -73930,7 +73930,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="524" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="524" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A524" s="5">
         <v>45530</v>
       </c>
@@ -74085,7 +74085,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="525" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="525" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A525" s="5">
         <v>45531</v>
       </c>
@@ -74240,7 +74240,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="526" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="526" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A526" s="5">
         <v>45532</v>
       </c>
@@ -74395,7 +74395,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="527" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="527" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A527" s="5">
         <v>45533</v>
       </c>
@@ -74550,7 +74550,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="528" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="528" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A528" s="5">
         <v>45534</v>
       </c>
@@ -74705,7 +74705,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="529" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="529" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A529" s="5">
         <v>45535</v>
       </c>
@@ -74860,7 +74860,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="530" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="530" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A530" s="5">
         <v>45536</v>
       </c>
@@ -75015,7 +75015,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="531" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="531" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A531" s="5">
         <v>45537</v>
       </c>
@@ -75170,7 +75170,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="532" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="532" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A532" s="5">
         <v>45538</v>
       </c>
@@ -75325,7 +75325,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="533" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="533" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A533" s="5">
         <v>45539</v>
       </c>
@@ -75480,7 +75480,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="534" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="534" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A534" s="5">
         <v>45540</v>
       </c>
@@ -75635,7 +75635,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="535" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="535" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A535" s="5">
         <v>45541</v>
       </c>
@@ -75790,7 +75790,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="536" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="536" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A536" s="5">
         <v>45542</v>
       </c>
@@ -75945,7 +75945,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="537" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="537" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A537" s="5">
         <v>45543</v>
       </c>
@@ -76100,7 +76100,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="538" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="538" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A538" s="5">
         <v>45544</v>
       </c>
@@ -76255,7 +76255,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="539" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="539" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A539" s="5">
         <v>45545</v>
       </c>
@@ -76410,7 +76410,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="540" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="540" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A540" s="5">
         <v>45546</v>
       </c>
@@ -76565,7 +76565,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="541" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="541" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A541" s="5">
         <v>45547</v>
       </c>
@@ -76720,7 +76720,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="542" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="542" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A542" s="5">
         <v>45548</v>
       </c>
@@ -76875,7 +76875,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="543" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="543" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A543" s="5">
         <v>45549</v>
       </c>
@@ -77030,7 +77030,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="544" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="544" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A544" s="5">
         <v>45550</v>
       </c>
@@ -77185,7 +77185,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="545" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="545" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A545" s="5">
         <v>45551</v>
       </c>
@@ -77340,7 +77340,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="546" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="546" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A546" s="5">
         <v>45552</v>
       </c>
@@ -77495,7 +77495,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="547" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="547" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A547" s="5">
         <v>45553</v>
       </c>
@@ -77650,7 +77650,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="548" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="548" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A548" s="5">
         <v>45554</v>
       </c>
@@ -77805,7 +77805,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="549" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="549" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A549" s="5">
         <v>45555</v>
       </c>
@@ -77960,7 +77960,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="550" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="550" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A550" s="5">
         <v>45556</v>
       </c>
@@ -78115,7 +78115,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="551" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="551" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A551" s="5">
         <v>45557</v>
       </c>
@@ -78270,7 +78270,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="552" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="552" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A552" s="5">
         <v>45558</v>
       </c>
@@ -78425,7 +78425,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="553" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="553" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A553" s="5">
         <v>45559</v>
       </c>
@@ -78580,7 +78580,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="554" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="554" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A554" s="5">
         <v>45560</v>
       </c>
@@ -78735,7 +78735,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="555" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="555" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A555" s="5">
         <v>45561</v>
       </c>
@@ -78890,7 +78890,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="556" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="556" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A556" s="5">
         <v>45562</v>
       </c>
@@ -79045,7 +79045,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="557" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="557" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A557" s="5">
         <v>45563</v>
       </c>
@@ -79200,7 +79200,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="558" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="558" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A558" s="5">
         <v>45564</v>
       </c>
@@ -79355,7 +79355,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="559" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="559" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A559" s="5">
         <v>45565</v>
       </c>
@@ -79510,7 +79510,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="560" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="560" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A560" s="5">
         <v>45566</v>
       </c>
@@ -79665,7 +79665,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="561" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="561" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A561" s="5">
         <v>45567</v>
       </c>
@@ -79820,7 +79820,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="562" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="562" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A562" s="5">
         <v>45568</v>
       </c>
@@ -79975,7 +79975,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="563" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="563" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A563" s="5">
         <v>45569</v>
       </c>
@@ -80130,7 +80130,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="564" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="564" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A564" s="5">
         <v>45570</v>
       </c>
@@ -80285,7 +80285,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="565" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="565" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A565" s="5">
         <v>45571</v>
       </c>
@@ -80440,7 +80440,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="566" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="566" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A566" s="5">
         <v>45572</v>
       </c>
@@ -80595,7 +80595,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="567" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="567" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A567" s="5">
         <v>45573</v>
       </c>
@@ -80750,7 +80750,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="568" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="568" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A568" s="5">
         <v>45574</v>
       </c>
@@ -80905,7 +80905,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="569" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="569" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A569" s="5">
         <v>45575</v>
       </c>
@@ -81060,7 +81060,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="570" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="570" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A570" s="5">
         <v>45576</v>
       </c>
@@ -81215,7 +81215,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="571" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="571" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A571" s="5">
         <v>45577</v>
       </c>
@@ -81370,7 +81370,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="572" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="572" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A572" s="5">
         <v>45578</v>
       </c>
@@ -81525,7 +81525,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="573" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="573" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A573" s="5">
         <v>45579</v>
       </c>
@@ -81680,7 +81680,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="574" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="574" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A574" s="5">
         <v>45580</v>
       </c>
@@ -81835,7 +81835,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="575" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="575" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A575" s="5">
         <v>45581</v>
       </c>
@@ -81990,7 +81990,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="576" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="576" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A576" s="5">
         <v>45582</v>
       </c>
@@ -82145,7 +82145,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="577" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="577" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A577" s="5">
         <v>45583</v>
       </c>
@@ -82300,7 +82300,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="578" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="578" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A578" s="5">
         <v>45584</v>
       </c>
@@ -82455,7 +82455,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="579" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="579" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A579" s="5">
         <v>45585</v>
       </c>
@@ -82610,7 +82610,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="580" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="580" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A580" s="5">
         <v>45586</v>
       </c>
@@ -82765,7 +82765,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="581" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="581" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A581" s="5">
         <v>45587</v>
       </c>
@@ -82920,7 +82920,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="582" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="582" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A582" s="5">
         <v>45588</v>
       </c>
@@ -83075,7 +83075,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="583" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="583" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A583" s="5">
         <v>45589</v>
       </c>
@@ -83230,7 +83230,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="584" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="584" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A584" s="5">
         <v>45590</v>
       </c>
@@ -83385,7 +83385,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="585" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="585" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A585" s="5">
         <v>45591</v>
       </c>
@@ -83540,7 +83540,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="586" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="586" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A586" s="5">
         <v>45592</v>
       </c>
@@ -83695,7 +83695,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="587" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="587" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A587" s="5">
         <v>45593</v>
       </c>
@@ -83850,7 +83850,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="588" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="588" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A588" s="5">
         <v>45594</v>
       </c>
@@ -84005,7 +84005,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="589" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="589" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A589" s="5">
         <v>45595</v>
       </c>
@@ -84160,7 +84160,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="590" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="590" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A590" s="5">
         <v>45596</v>
       </c>
@@ -84315,7 +84315,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="591" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="591" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A591" s="5">
         <v>45597</v>
       </c>
@@ -84470,7 +84470,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="592" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="592" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A592" s="5">
         <v>45598</v>
       </c>
@@ -84625,7 +84625,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="593" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="593" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A593" s="5">
         <v>45599</v>
       </c>
